--- a/biology/Zoologie/Conure_veuve/Conure_veuve.xlsx
+++ b/biology/Zoologie/Conure_veuve/Conure_veuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myiopsitta monachus
-La Perriche veuve (Myiopsitta monachus), anciennement Conure veuve, encore appelée Perruche veuve[1], Perruche torrègne, Perruche moine, Perruche-souris, Perruche Quaker (États-Unis et Canada) ou Perruche jeune-veuve (cotorra en Argentine), est une espèce d'oiseaux de l'ordre des Psittaciformes et de la famille des psittacidés. En tant que Psittacidé, le terme « conure » est à préférer[2], « perruche » étant plutôt réservé aux Psittaculidés[3].
+La Perriche veuve (Myiopsitta monachus), anciennement Conure veuve, encore appelée Perruche veuve, Perruche torrègne, Perruche moine, Perruche-souris, Perruche Quaker (États-Unis et Canada) ou Perruche jeune-veuve (cotorra en Argentine), est une espèce d'oiseaux de l'ordre des Psittaciformes et de la famille des psittacidés. En tant que Psittacidé, le terme « conure » est à préférer, « perruche » étant plutôt réservé aux Psittaculidés.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est de couleur verte, avec le front et la poitrine gris pâle, les couvertures sus-alaires bleues et le dessous des rémiges bleu foncé. Elle mesure environ 29 cm de longueur pour une envergure de 48 cm et une masse de 100 g. Il n'y a pas de dimorphisme sexuel, cependant habituellement les femelles présentent un poids plus réduit de 10 à 20%.
 </t>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Perruche veuve est originaire du Brésil, du Paraguay et de l'Argentine. L'espèce est désormais implantée dans l'est des États-Unis, au nord jusqu'à Chicago et au Massachusetts[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Perruche veuve est originaire du Brésil, du Paraguay et de l'Argentine. L'espèce est désormais implantée dans l'est des États-Unis, au nord jusqu'à Chicago et au Massachusetts.
 Des colonies, généralement issues de lâchers sauvages, sont installées dans certaines régions d'Europe : en Espagne (parc Montjuic à Barcelone, mais aussi en Andalousie) et en France, notamment à Montpellier (quartier des Aubes), à Marseille (parc Longchamp), à Toulon et dans le parc de la Légion d'honneur à Saint-Denis (93200).
 En Grèce, elle est présente dans le jardin national d'Athènes. En Italie à Rome, elle est présente dans les parcs de la ville. A Bruxelles, elle est présente dans différents parcs.
 </t>
@@ -576,7 +592,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son vol rectiligne rapide de cime en cime peut le rendre difficile à observer. Au sol, elle présente une démarche maladroite caractéristique.
 </t>
@@ -607,9 +625,11 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a ceci de remarquable qu'elle est la seule parmi les perruches à construire de vastes nids collectifs à entrées multiples, faits de branches et brindilles, lesquels peuvent atteindre plusieurs mètres d'envergure et peser jusqu'à 200 kg. Ces nids volumineux peuvent endommager les immeubles et les lignes électriques[5]. La femelle pond de 4 à 6 œufs par ponte. La durée d'incubation est de 23 à 25 jours.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a ceci de remarquable qu'elle est la seule parmi les perruches à construire de vastes nids collectifs à entrées multiples, faits de branches et brindilles, lesquels peuvent atteindre plusieurs mètres d'envergure et peser jusqu'à 200 kg. Ces nids volumineux peuvent endommager les immeubles et les lignes électriques. La femelle pond de 4 à 6 œufs par ponte. La durée d'incubation est de 23 à 25 jours.
 			Nid collectif, Bruxelles
 </t>
         </is>
@@ -639,11 +659,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sa sous-espèce Myiopsitta monachus luchsi est désormais considérée comme l'espèce à part entière Myiopsitta luchsi[6].
-Sous-espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa sous-espèce Myiopsitta monachus luchsi est désormais considérée comme l'espèce à part entière Myiopsitta luchsi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conure_veuve</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conure_veuve</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Myiopsitta monachus cotorra (Vieillot, 1818) ;
 Myiopsitta monachus monachus (Boddaert, 1783) ;
 Myiopsitta monachus calita (Jardine &amp; Selby, 1830).</t>
